--- a/src/python/comp230/dv_ex.xlsx
+++ b/src/python/comp230/dv_ex.xlsx
@@ -368,10 +368,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="A1 A2 B1:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"Dog,Cat,Bat"</formula1>
     </dataValidation>
+    <dataValidation sqref="C1:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="date"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
